--- a/Test Data Driven/AI-Generated/TC4-Checkout for Samsung Products with Email Subscription.xlsx
+++ b/Test Data Driven/AI-Generated/TC4-Checkout for Samsung Products with Email Subscription.xlsx
@@ -452,10 +452,10 @@
     <col width="78" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="13" customWidth="1" min="6" max="6"/>
-    <col width="30" customWidth="1" min="7" max="7"/>
-    <col width="32" customWidth="1" min="8" max="8"/>
-    <col width="39" customWidth="1" min="9" max="9"/>
-    <col width="41" customWidth="1" min="10" max="10"/>
+    <col width="31" customWidth="1" min="7" max="7"/>
+    <col width="33" customWidth="1" min="8" max="8"/>
+    <col width="40" customWidth="1" min="9" max="9"/>
+    <col width="42" customWidth="1" min="10" max="10"/>
     <col width="40" customWidth="1" min="11" max="11"/>
     <col width="28" customWidth="1" min="12" max="12"/>
     <col width="90" customWidth="1" min="13" max="13"/>
@@ -496,22 +496,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>label_storageColorOption_for</t>
+          <t>label_storageColorOptions_for</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>label_storageColorOption_for_1</t>
+          <t>label_storageColorOptions_for_1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>label_storageColorOption_internalText</t>
+          <t>label_storageColorOptions_internalText</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>label_storageColorOption_internalText_1</t>
+          <t>label_storageColorOptions_internalText_1</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
